--- a/Code/Results/Cases/Case_2_255/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_255/res_line/pl_mw.xlsx
@@ -421,37 +421,37 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.152349566998367</v>
+        <v>0.6160493638826665</v>
       </c>
       <c r="C2">
-        <v>0.08516724464294256</v>
+        <v>0.138989126959995</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.1239170756560988</v>
+        <v>0.2167433957142926</v>
       </c>
       <c r="F2">
-        <v>1.108487031802838</v>
+        <v>2.100022427693361</v>
       </c>
       <c r="G2">
-        <v>0.0008229741607049856</v>
+        <v>0.002482084203086887</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0.4336700653148249</v>
+        <v>1.031830816547593</v>
       </c>
       <c r="J2">
-        <v>0.06941822902498984</v>
+        <v>0.06394189639972581</v>
       </c>
       <c r="K2">
-        <v>0.9182546414731974</v>
+        <v>0.3300181322398146</v>
       </c>
       <c r="L2">
-        <v>0.419838744721261</v>
+        <v>0.4664012796701797</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -460,7 +460,7 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>1.711542102985675</v>
+        <v>3.873840421751538</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,37 +468,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.002320865832928</v>
+        <v>0.5725389478365059</v>
       </c>
       <c r="C3">
-        <v>0.08406933335798783</v>
+        <v>0.1386822754600878</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.1146092194063115</v>
+        <v>0.215328455227084</v>
       </c>
       <c r="F3">
-        <v>1.063201878787098</v>
+        <v>2.102601023592925</v>
       </c>
       <c r="G3">
-        <v>0.0008265519012516931</v>
+        <v>0.002484395431093864</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0.4440834315368605</v>
+        <v>1.041599121772443</v>
       </c>
       <c r="J3">
-        <v>0.06594031741034811</v>
+        <v>0.06270644475393539</v>
       </c>
       <c r="K3">
-        <v>0.8001299854786055</v>
+        <v>0.2938163420836304</v>
       </c>
       <c r="L3">
-        <v>0.3736491474620749</v>
+        <v>0.4557100808996921</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -507,7 +507,7 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>1.732062017271588</v>
+        <v>3.907300601650846</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,37 +515,37 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.9103808759789445</v>
+        <v>0.5459411450598566</v>
       </c>
       <c r="C4">
-        <v>0.08341056042569761</v>
+        <v>0.1385004160860568</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.1090032978785409</v>
+        <v>0.2145390260221056</v>
       </c>
       <c r="F4">
-        <v>1.037177778885052</v>
+        <v>2.105214164293919</v>
       </c>
       <c r="G4">
-        <v>0.0008288208258836165</v>
+        <v>0.002485890243645423</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0.4513298383772835</v>
+        <v>1.048074538806837</v>
       </c>
       <c r="J4">
-        <v>0.06380514244976965</v>
+        <v>0.06194462078331853</v>
       </c>
       <c r="K4">
-        <v>0.7276296202733761</v>
+        <v>0.2715765418725624</v>
       </c>
       <c r="L4">
-        <v>0.3455534129925439</v>
+        <v>0.4493236593938832</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -554,7 +554,7 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>1.748238424396163</v>
+        <v>3.929784546912003</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,37 +562,37 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.8729474929469632</v>
+        <v>0.5351327306454152</v>
       </c>
       <c r="C5">
-        <v>0.08314581597104365</v>
+        <v>0.1384279696707154</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.1067449286705475</v>
+        <v>0.2142373480581021</v>
       </c>
       <c r="F5">
-        <v>1.027001085861912</v>
+        <v>2.106538267356349</v>
       </c>
       <c r="G5">
-        <v>0.0008297638858152006</v>
+        <v>0.002486518485060215</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0.4544904056977366</v>
+        <v>1.050833458075804</v>
       </c>
       <c r="J5">
-        <v>0.06293495992153098</v>
+        <v>0.06163337388616341</v>
       </c>
       <c r="K5">
-        <v>0.6980833104672257</v>
+        <v>0.2625112601028832</v>
       </c>
       <c r="L5">
-        <v>0.3341653597295959</v>
+        <v>0.4467661411850514</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -601,7 +601,7 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>1.755697435027628</v>
+        <v>3.93943462706109</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,37 +609,37 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.8667333609672596</v>
+        <v>0.533339861495449</v>
       </c>
       <c r="C6">
-        <v>0.08310207537126502</v>
+        <v>0.1384160409004274</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.1063714655164354</v>
+        <v>0.214188465861703</v>
       </c>
       <c r="F6">
-        <v>1.025336569682388</v>
+        <v>2.106773797898754</v>
       </c>
       <c r="G6">
-        <v>0.0008299216035786211</v>
+        <v>0.002486623958925354</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0.455027561271077</v>
+        <v>1.051298831166708</v>
       </c>
       <c r="J6">
-        <v>0.06279045760672375</v>
+        <v>0.06158164400686061</v>
       </c>
       <c r="K6">
-        <v>0.6931768047026168</v>
+        <v>0.2610058499865886</v>
       </c>
       <c r="L6">
-        <v>0.3322779245307856</v>
+        <v>0.4463441921090947</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -648,7 +648,7 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>1.756987440545601</v>
+        <v>3.941066472201342</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,37 +656,37 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.9098759182781748</v>
+        <v>0.5457952548374863</v>
       </c>
       <c r="C7">
-        <v>0.08340697515165374</v>
+        <v>0.1384994322947435</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.1089727368311202</v>
+        <v>0.2145348763340529</v>
       </c>
       <c r="F7">
-        <v>1.037038823298879</v>
+        <v>2.105230971670053</v>
       </c>
       <c r="G7">
-        <v>0.0008288334691391919</v>
+        <v>0.002485898638936587</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0.451371631078807</v>
+        <v>1.048111260101141</v>
       </c>
       <c r="J7">
-        <v>0.06379340738712713</v>
+        <v>0.06194042640078834</v>
       </c>
       <c r="K7">
-        <v>0.7272311673250016</v>
+        <v>0.2714542931980333</v>
       </c>
       <c r="L7">
-        <v>0.3453995889423993</v>
+        <v>0.4492889852893853</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -695,7 +695,7 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>1.74833555063924</v>
+        <v>3.929912716570684</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,37 +703,37 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.100575250073661</v>
+        <v>0.6010229900237221</v>
       </c>
       <c r="C8">
-        <v>0.08478540530355616</v>
+        <v>0.1388819748167833</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.1206842368462731</v>
+        <v>0.2162390948742718</v>
       </c>
       <c r="F8">
-        <v>1.092490968841233</v>
+        <v>2.100697927479828</v>
       </c>
       <c r="G8">
-        <v>0.0008241929732654032</v>
+        <v>0.002482865434685497</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0.4370794676042564</v>
+        <v>1.035099811734902</v>
       </c>
       <c r="J8">
-        <v>0.06821889319011731</v>
+        <v>0.06351659931754128</v>
       </c>
       <c r="K8">
-        <v>0.8775136778806143</v>
+        <v>0.31753852676826</v>
       </c>
       <c r="L8">
-        <v>0.4038542412803992</v>
+        <v>0.4626781443300985</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -742,7 +742,7 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>1.717854913726896</v>
+        <v>3.884975026731524</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,37 +750,37 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.476540166645606</v>
+        <v>0.7102296808703272</v>
       </c>
       <c r="C9">
-        <v>0.08761782151754716</v>
+        <v>0.13968345485074</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.1445818873208076</v>
+        <v>0.2202080482539799</v>
       </c>
       <c r="F9">
-        <v>1.216298396336654</v>
+        <v>2.099971011418575</v>
       </c>
       <c r="G9">
-        <v>0.0008156511159016409</v>
+        <v>0.002477515510248325</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0.4161382432120426</v>
+        <v>1.013372965933879</v>
       </c>
       <c r="J9">
-        <v>0.07690708680958025</v>
+        <v>0.06658092163084461</v>
       </c>
       <c r="K9">
-        <v>1.172892962103049</v>
+        <v>0.4077955681454171</v>
       </c>
       <c r="L9">
-        <v>0.5208486578361118</v>
+        <v>0.4903380556640258</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -789,7 +789,7 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>1.688007306992404</v>
+        <v>3.812238044646165</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,37 +797,37 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.754882757552252</v>
+        <v>0.790984810748995</v>
       </c>
       <c r="C10">
-        <v>0.08978938430057326</v>
+        <v>0.1403028041037544</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.16280491233465</v>
+        <v>0.2235032619565658</v>
       </c>
       <c r="F10">
-        <v>1.317821339050411</v>
+        <v>2.104403673382052</v>
       </c>
       <c r="G10">
-        <v>0.0008096942429510109</v>
+        <v>0.002473946024541602</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0.4055422635945547</v>
+        <v>0.9997180911870522</v>
       </c>
       <c r="J10">
-        <v>0.08330810751311901</v>
+        <v>0.06881529724272184</v>
       </c>
       <c r="K10">
-        <v>1.391005747441881</v>
+        <v>0.4740166095862719</v>
       </c>
       <c r="L10">
-        <v>0.6086415448790206</v>
+        <v>0.5115064422680717</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -836,7 +836,7 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>1.686585938214961</v>
+        <v>3.768176677358554</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,37 +844,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.882184617994682</v>
+        <v>0.8278295191639415</v>
       </c>
       <c r="C11">
-        <v>0.09079988596498367</v>
+        <v>0.1405910276804434</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.171262606599754</v>
+        <v>0.2250840802408192</v>
       </c>
       <c r="F11">
-        <v>1.366625802510896</v>
+        <v>2.10749692096401</v>
       </c>
       <c r="G11">
-        <v>0.0008070485308191321</v>
+        <v>0.002472399825259214</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0.4018729779588135</v>
+        <v>0.9940069014785529</v>
       </c>
       <c r="J11">
-        <v>0.08622677490760111</v>
+        <v>0.06982792800462789</v>
       </c>
       <c r="K11">
-        <v>1.490634403499399</v>
+        <v>0.5041184649205093</v>
       </c>
       <c r="L11">
-        <v>0.649073690456845</v>
+        <v>0.5213185448060926</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>1.690928975656846</v>
+        <v>3.750168383433476</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,37 +891,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.930507467161931</v>
+        <v>0.8417966097582621</v>
       </c>
       <c r="C12">
-        <v>0.09118606005294083</v>
+        <v>0.140701087560771</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0.1744914801425281</v>
+        <v>0.2256943978121555</v>
       </c>
       <c r="F12">
-        <v>1.385512577850065</v>
+        <v>2.108822892053425</v>
       </c>
       <c r="G12">
-        <v>0.0008060554522220188</v>
+        <v>0.002471825418424964</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0.400658970942068</v>
+        <v>0.9919161716539229</v>
       </c>
       <c r="J12">
-        <v>0.08733321272661243</v>
+        <v>0.07021082077405794</v>
       </c>
       <c r="K12">
-        <v>1.528434272190481</v>
+        <v>0.5155135406235161</v>
       </c>
       <c r="L12">
-        <v>0.6644636414218184</v>
+        <v>0.5250601705916864</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -930,7 +930,7 @@
         <v>0</v>
       </c>
       <c r="O12">
-        <v>1.693339167053068</v>
+        <v>3.743641811547263</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,37 +938,37 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.920094794895363</v>
+        <v>0.8387879021307469</v>
       </c>
       <c r="C13">
-        <v>0.09110272959261323</v>
+        <v>0.1406773437111397</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0.1737948895217514</v>
+        <v>0.2255624359043509</v>
       </c>
       <c r="F13">
-        <v>1.381426457423927</v>
+        <v>2.10853044693917</v>
       </c>
       <c r="G13">
-        <v>0.0008062689453051655</v>
+        <v>0.002471948634110604</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0.4009124588728099</v>
+        <v>0.9923632465933032</v>
       </c>
       <c r="J13">
-        <v>0.08709486439826719</v>
+        <v>0.0701283836068356</v>
       </c>
       <c r="K13">
-        <v>1.520289928679574</v>
+        <v>0.5130595879542454</v>
       </c>
       <c r="L13">
-        <v>0.6611454849492731</v>
+        <v>0.5242531923149301</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -977,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <v>1.692785239075221</v>
+        <v>3.745034402854941</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,37 +985,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.886157725676753</v>
+        <v>0.8289783083480131</v>
       </c>
       <c r="C14">
-        <v>0.09083158461918828</v>
+        <v>0.1406000641071898</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0.1715277125336243</v>
+        <v>0.225134057419325</v>
       </c>
       <c r="F14">
-        <v>1.368171329359242</v>
+        <v>2.107602911735583</v>
       </c>
       <c r="G14">
-        <v>0.000806966655788523</v>
+        <v>0.002472352346141194</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>0.4017695246193824</v>
+        <v>0.9938334533860278</v>
       </c>
       <c r="J14">
-        <v>0.08631777680118802</v>
+        <v>0.06985944034527591</v>
       </c>
       <c r="K14">
-        <v>1.493742681410311</v>
+        <v>0.5050560252221601</v>
       </c>
       <c r="L14">
-        <v>0.6503381962160262</v>
+        <v>0.521625851039758</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -1024,7 +1024,7 @@
         <v>0</v>
       </c>
       <c r="O14">
-        <v>1.691111633112627</v>
+        <v>3.7496255702452</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,37 +1032,37 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.865386014279892</v>
+        <v>0.8229715511540121</v>
       </c>
       <c r="C15">
-        <v>0.09066596699641138</v>
+        <v>0.1405528469268447</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0.170142464720989</v>
+        <v>0.2248731843722709</v>
       </c>
       <c r="F15">
-        <v>1.360105883056249</v>
+        <v>2.107054899929125</v>
       </c>
       <c r="G15">
-        <v>0.0008073951560734053</v>
+        <v>0.002472601076293958</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0.4023176612602768</v>
+        <v>0.9947433707626949</v>
       </c>
       <c r="J15">
-        <v>0.0858419515693285</v>
+        <v>0.06969463012945454</v>
       </c>
       <c r="K15">
-        <v>1.477491621157952</v>
+        <v>0.5001530930851743</v>
       </c>
       <c r="L15">
-        <v>0.6437289785624074</v>
+        <v>0.5200199066854765</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -1071,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>1.690187684905368</v>
+        <v>3.752475923690554</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,37 +1079,37 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.746578544829134</v>
+        <v>0.7885790393012542</v>
       </c>
       <c r="C16">
-        <v>0.08972382321963579</v>
+        <v>0.1402840970292303</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0.1622557278259507</v>
+        <v>0.2234015921546089</v>
       </c>
       <c r="F16">
-        <v>1.31468700443645</v>
+        <v>2.104223171870174</v>
       </c>
       <c r="G16">
-        <v>0.0008098684007525877</v>
+        <v>0.00247404862901731</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>0.4058060564952584</v>
+        <v>1.00010140226793</v>
       </c>
       <c r="J16">
-        <v>0.08311752147599094</v>
+        <v>0.06874904110355828</v>
       </c>
       <c r="K16">
-        <v>1.38450416299986</v>
+        <v>0.4720488783089536</v>
       </c>
       <c r="L16">
-        <v>0.606009838581798</v>
+        <v>0.5108688494569691</v>
       </c>
       <c r="M16">
         <v>0</v>
@@ -1118,7 +1118,7 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>1.686406550208261</v>
+        <v>3.769394527217543</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,37 +1126,37 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.673881375821168</v>
+        <v>0.7675076097976614</v>
       </c>
       <c r="C17">
-        <v>0.08915182787432485</v>
+        <v>0.140120875716029</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0.1574618531332526</v>
+        <v>0.2225197228388218</v>
       </c>
       <c r="F17">
-        <v>1.287515142175678</v>
+        <v>2.10276163976657</v>
       </c>
       <c r="G17">
-        <v>0.0008114017811166975</v>
+        <v>0.002474956489150869</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>0.4082477343118711</v>
+        <v>1.003516569953522</v>
       </c>
       <c r="J17">
-        <v>0.08144807008161337</v>
+        <v>0.0681679641963342</v>
       </c>
       <c r="K17">
-        <v>1.327573503963521</v>
+        <v>0.4548016675778399</v>
       </c>
       <c r="L17">
-        <v>0.5830026247206064</v>
+        <v>0.5053015381734269</v>
       </c>
       <c r="M17">
         <v>0</v>
@@ -1165,7 +1165,7 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>1.685398101578784</v>
+        <v>3.780294928088011</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,37 +1173,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.632130948570989</v>
+        <v>0.7553981715030318</v>
       </c>
       <c r="C18">
-        <v>0.08882494574955047</v>
+        <v>0.1400276058488288</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0.1547202255810838</v>
+        <v>0.2220201992564093</v>
       </c>
       <c r="F18">
-        <v>1.272131497432497</v>
+        <v>2.102022372492627</v>
       </c>
       <c r="G18">
-        <v>0.0008122898010663469</v>
+        <v>0.00247548597141496</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>0.4097598136833049</v>
+        <v>1.00552799142671</v>
       </c>
       <c r="J18">
-        <v>0.08048847271972193</v>
+        <v>0.06783338798888749</v>
       </c>
       <c r="K18">
-        <v>1.294866005071839</v>
+        <v>0.4448794538692482</v>
       </c>
       <c r="L18">
-        <v>0.5698155367627749</v>
+        <v>0.5021165602746862</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -1212,7 +1212,7 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>1.685284650595548</v>
+        <v>3.786756130874949</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,37 +1220,37 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.618005267124232</v>
+        <v>0.7512999169979935</v>
       </c>
       <c r="C19">
-        <v>0.0887146246482331</v>
+        <v>0.1399961316476563</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0.1537945928702804</v>
+        <v>0.2218523944525153</v>
       </c>
       <c r="F19">
-        <v>1.266964077239564</v>
+        <v>2.1017894858646</v>
       </c>
       <c r="G19">
-        <v>0.0008125915225444493</v>
+        <v>0.002475666501217891</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>0.4102899804709779</v>
+        <v>1.006217114755543</v>
       </c>
       <c r="J19">
-        <v>0.08016367067116192</v>
+        <v>0.06772004574833801</v>
       </c>
       <c r="K19">
-        <v>1.283797841283018</v>
+        <v>0.4415196254196303</v>
       </c>
       <c r="L19">
-        <v>0.5653582889902822</v>
+        <v>0.501041141814909</v>
       </c>
       <c r="M19">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="O19">
-        <v>1.685324961661138</v>
+        <v>3.788976684703641</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,37 +1267,37 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.681613458837916</v>
+        <v>0.7697496405305344</v>
       </c>
       <c r="C20">
-        <v>0.08921249709373313</v>
+        <v>0.1401381878107131</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>0.157970532292083</v>
+        <v>0.2226128024575154</v>
       </c>
       <c r="F20">
-        <v>1.290382086313372</v>
+        <v>2.102906732791368</v>
       </c>
       <c r="G20">
-        <v>0.0008112379259758689</v>
+        <v>0.002474859090126986</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>0.4079765977756189</v>
+        <v>1.003148144051423</v>
       </c>
       <c r="J20">
-        <v>0.08162571958255427</v>
+        <v>0.06822985784649305</v>
       </c>
       <c r="K20">
-        <v>1.333629889658511</v>
+        <v>0.4566378817695806</v>
       </c>
       <c r="L20">
-        <v>0.585446959136533</v>
+        <v>0.5058924104175588</v>
       </c>
       <c r="M20">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="O20">
-        <v>1.685456825291681</v>
+        <v>3.779114733329436</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,37 +1314,37 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.896122554296682</v>
+        <v>0.8318592289094227</v>
       </c>
       <c r="C21">
-        <v>0.09091112874732232</v>
+        <v>0.1406227382684406</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>0.1721929118581329</v>
+        <v>0.2252595656809078</v>
       </c>
       <c r="F21">
-        <v>1.372053436380696</v>
+        <v>2.107871156566446</v>
       </c>
       <c r="G21">
-        <v>0.0008067614860976601</v>
+        <v>0.002472233465165671</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>0.4015129385384064</v>
+        <v>0.9933996646234071</v>
       </c>
       <c r="J21">
-        <v>0.08654599180411537</v>
+        <v>0.06993845110878283</v>
       </c>
       <c r="K21">
-        <v>1.501538162838074</v>
+        <v>0.5074069748373802</v>
       </c>
       <c r="L21">
-        <v>0.6535103433334939</v>
+        <v>0.5223968613209848</v>
       </c>
       <c r="M21">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="O21">
-        <v>1.691582034669295</v>
+        <v>3.748269086506866</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,37 +1361,37 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>2.037004561726121</v>
+        <v>0.8725373057669117</v>
       </c>
       <c r="C22">
-        <v>0.09204193476131195</v>
+        <v>0.1409447512040458</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>0.1816413666077352</v>
+        <v>0.2270575200791498</v>
       </c>
       <c r="F22">
-        <v>1.427809146793251</v>
+        <v>2.112016867251299</v>
       </c>
       <c r="G22">
-        <v>0.0008038869244161222</v>
+        <v>0.002470582173721869</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>0.3983164690693641</v>
+        <v>0.9874479904741307</v>
       </c>
       <c r="J22">
-        <v>0.08976879295162377</v>
+        <v>0.07105179140246065</v>
       </c>
       <c r="K22">
-        <v>1.611706696812718</v>
+        <v>0.5405648231540567</v>
       </c>
       <c r="L22">
-        <v>0.6984593232430001</v>
+        <v>0.5333348809500507</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -1400,7 +1400,7 @@
         <v>0</v>
       </c>
       <c r="O22">
-        <v>1.700072314796301</v>
+        <v>3.72981624737605</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,37 +1408,37 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.961743847992977</v>
+        <v>0.8508190720511948</v>
       </c>
       <c r="C23">
-        <v>0.09143641921905044</v>
+        <v>0.1407724041830889</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>0.1765838333988867</v>
+        <v>0.2260917055004725</v>
       </c>
       <c r="F23">
-        <v>1.397823639871049</v>
+        <v>2.109721838506559</v>
       </c>
       <c r="G23">
-        <v>0.0008054166072677405</v>
+        <v>0.002471457594990314</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>0.3999249576463129</v>
+        <v>0.9905861230664108</v>
       </c>
       <c r="J23">
-        <v>0.08804799466974345</v>
+        <v>0.07045789229262311</v>
       </c>
       <c r="K23">
-        <v>1.552863362920789</v>
+        <v>0.5228701352320968</v>
       </c>
       <c r="L23">
-        <v>0.6744238017230657</v>
+        <v>0.5274832820262247</v>
       </c>
       <c r="M23">
         <v>0</v>
@@ -1447,7 +1447,7 @@
         <v>0</v>
       </c>
       <c r="O23">
-        <v>1.695113563931159</v>
+        <v>3.739508695564439</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,37 +1455,37 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.678117647973409</v>
+        <v>0.7687360033991126</v>
       </c>
       <c r="C24">
-        <v>0.089185062436961</v>
+        <v>0.1401303592429244</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>0.1577405136309764</v>
+        <v>0.2225706978738522</v>
       </c>
       <c r="F24">
-        <v>1.289085202254924</v>
+        <v>2.102840821651782</v>
       </c>
       <c r="G24">
-        <v>0.0008113119846985538</v>
+        <v>0.002474903100720837</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>0.4080988419381733</v>
+        <v>1.003314559896392</v>
       </c>
       <c r="J24">
-        <v>0.08154540366030005</v>
+        <v>0.06820187730570026</v>
       </c>
       <c r="K24">
-        <v>1.330891728039148</v>
+        <v>0.4558077497289617</v>
       </c>
       <c r="L24">
-        <v>0.5843417513521842</v>
+        <v>0.5056252280193405</v>
       </c>
       <c r="M24">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="O24">
-        <v>1.685428827416587</v>
+        <v>3.779647693784511</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,37 +1502,37 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.374527940139558</v>
+        <v>0.6805926682066854</v>
       </c>
       <c r="C25">
-        <v>0.08683658699910524</v>
+        <v>0.1394612210977542</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>0.1380074909612752</v>
+        <v>0.2190675286061712</v>
       </c>
       <c r="F25">
-        <v>1.181055104667493</v>
+        <v>2.09929477852792</v>
       </c>
       <c r="G25">
-        <v>0.000817904307821879</v>
+        <v>0.002478899137153836</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>0.4209980380690403</v>
+        <v>1.01884524556425</v>
       </c>
       <c r="J25">
-        <v>0.0745544698102627</v>
+        <v>0.0657548658906677</v>
       </c>
       <c r="K25">
-        <v>1.092844770390883</v>
+        <v>0.3833930641216341</v>
       </c>
       <c r="L25">
-        <v>0.4889060308480424</v>
+        <v>0.4827059753845901</v>
       </c>
       <c r="M25">
         <v>0</v>
@@ -1541,7 +1541,7 @@
         <v>0</v>
       </c>
       <c r="O25">
-        <v>1.692652878851888</v>
+        <v>3.830268289936541</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_255/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_255/res_line/pl_mw.xlsx
@@ -421,37 +421,37 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.6160493638826665</v>
+        <v>1.152349566998254</v>
       </c>
       <c r="C2">
-        <v>0.138989126959995</v>
+        <v>0.08516724464254466</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.2167433957142926</v>
+        <v>0.1239170756560988</v>
       </c>
       <c r="F2">
-        <v>2.100022427693361</v>
+        <v>1.108487031802838</v>
       </c>
       <c r="G2">
-        <v>0.002482084203086887</v>
+        <v>0.0008229741607050134</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>1.031830816547593</v>
+        <v>0.4336700653148107</v>
       </c>
       <c r="J2">
-        <v>0.06394189639972581</v>
+        <v>0.06941822902502182</v>
       </c>
       <c r="K2">
-        <v>0.3300181322398146</v>
+        <v>0.9182546414732258</v>
       </c>
       <c r="L2">
-        <v>0.4664012796701797</v>
+        <v>0.4198387447213179</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -460,7 +460,7 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>3.873840421751538</v>
+        <v>1.711542102985661</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,37 +468,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.5725389478365059</v>
+        <v>1.002320865833155</v>
       </c>
       <c r="C3">
-        <v>0.1386822754600878</v>
+        <v>0.08406933335829692</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.215328455227084</v>
+        <v>0.1146092194063222</v>
       </c>
       <c r="F3">
-        <v>2.102601023592925</v>
+        <v>1.063201878787098</v>
       </c>
       <c r="G3">
-        <v>0.002484395431093864</v>
+        <v>0.0008265519013091079</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>1.041599121772443</v>
+        <v>0.4440834315368605</v>
       </c>
       <c r="J3">
-        <v>0.06270644475393539</v>
+        <v>0.06594031741035167</v>
       </c>
       <c r="K3">
-        <v>0.2938163420836304</v>
+        <v>0.8001299854786055</v>
       </c>
       <c r="L3">
-        <v>0.4557100808996921</v>
+        <v>0.3736491474619896</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -507,7 +507,7 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>3.907300601650846</v>
+        <v>1.732062017271588</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,37 +515,37 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.5459411450598566</v>
+        <v>0.9103808759791718</v>
       </c>
       <c r="C4">
-        <v>0.1385004160860568</v>
+        <v>0.08341056042577222</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.2145390260221056</v>
+        <v>0.1090032978785231</v>
       </c>
       <c r="F4">
-        <v>2.105214164293919</v>
+        <v>1.037177778885052</v>
       </c>
       <c r="G4">
-        <v>0.002485890243645423</v>
+        <v>0.0008288208258653226</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>1.048074538806837</v>
+        <v>0.4513298383772977</v>
       </c>
       <c r="J4">
-        <v>0.06194462078331853</v>
+        <v>0.06380514244973057</v>
       </c>
       <c r="K4">
-        <v>0.2715765418725624</v>
+        <v>0.7276296202733761</v>
       </c>
       <c r="L4">
-        <v>0.4493236593938832</v>
+        <v>0.3455534129925582</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -554,7 +554,7 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>3.929784546912003</v>
+        <v>1.748238424396192</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,37 +562,37 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.5351327306454152</v>
+        <v>0.8729474929467358</v>
       </c>
       <c r="C5">
-        <v>0.1384279696707154</v>
+        <v>0.0831458159711147</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.2142373480581021</v>
+        <v>0.1067449286705191</v>
       </c>
       <c r="F5">
-        <v>2.106538267356349</v>
+        <v>1.027001085861905</v>
       </c>
       <c r="G5">
-        <v>0.002486518485060215</v>
+        <v>0.000829763885798529</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>1.050833458075804</v>
+        <v>0.4544904056977295</v>
       </c>
       <c r="J5">
-        <v>0.06163337388616341</v>
+        <v>0.06293495992140308</v>
       </c>
       <c r="K5">
-        <v>0.2625112601028832</v>
+        <v>0.6980833104671262</v>
       </c>
       <c r="L5">
-        <v>0.4467661411850514</v>
+        <v>0.3341653597296101</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -601,7 +601,7 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>3.93943462706109</v>
+        <v>1.755697435027614</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,37 +609,37 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.533339861495449</v>
+        <v>0.8667333609672596</v>
       </c>
       <c r="C6">
-        <v>0.1384160409004274</v>
+        <v>0.08310207537119396</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.214188465861703</v>
+        <v>0.1063714655164674</v>
       </c>
       <c r="F6">
-        <v>2.106773797898754</v>
+        <v>1.025336569682402</v>
       </c>
       <c r="G6">
-        <v>0.002486623958925354</v>
+        <v>0.0008299216035777824</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>1.051298831166708</v>
+        <v>0.4550275612710735</v>
       </c>
       <c r="J6">
-        <v>0.06158164400686061</v>
+        <v>0.06279045760670243</v>
       </c>
       <c r="K6">
-        <v>0.2610058499865886</v>
+        <v>0.6931768047026026</v>
       </c>
       <c r="L6">
-        <v>0.4463441921090947</v>
+        <v>0.3322779245308993</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -648,7 +648,7 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>3.941066472201342</v>
+        <v>1.756987440545629</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,37 +656,37 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.5457952548374863</v>
+        <v>0.9098759182782032</v>
       </c>
       <c r="C7">
-        <v>0.1384994322947435</v>
+        <v>0.08340697515188822</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.2145348763340529</v>
+        <v>0.1089727368311131</v>
       </c>
       <c r="F7">
-        <v>2.105230971670053</v>
+        <v>1.0370388232989</v>
       </c>
       <c r="G7">
-        <v>0.002485898638936587</v>
+        <v>0.0008288334692560612</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>1.048111260101141</v>
+        <v>0.4513716310788176</v>
       </c>
       <c r="J7">
-        <v>0.06194042640078834</v>
+        <v>0.06379340738712358</v>
       </c>
       <c r="K7">
-        <v>0.2714542931980333</v>
+        <v>0.7272311673250584</v>
       </c>
       <c r="L7">
-        <v>0.4492889852893853</v>
+        <v>0.3453995889424704</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -695,7 +695,7 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>3.929912716570684</v>
+        <v>1.748335550639354</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,37 +703,37 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.6010229900237221</v>
+        <v>1.100575250073689</v>
       </c>
       <c r="C8">
-        <v>0.1388819748167833</v>
+        <v>0.08478540530332523</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.2162390948742718</v>
+        <v>0.1206842368462766</v>
       </c>
       <c r="F8">
-        <v>2.100697927479828</v>
+        <v>1.092490968841233</v>
       </c>
       <c r="G8">
-        <v>0.002482865434685497</v>
+        <v>0.0008241929731473551</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>1.035099811734902</v>
+        <v>0.4370794676042564</v>
       </c>
       <c r="J8">
-        <v>0.06351659931754128</v>
+        <v>0.06821889319012087</v>
       </c>
       <c r="K8">
-        <v>0.31753852676826</v>
+        <v>0.8775136778805859</v>
       </c>
       <c r="L8">
-        <v>0.4626781443300985</v>
+        <v>0.4038542412803849</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -742,7 +742,7 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>3.884975026731524</v>
+        <v>1.717854913726896</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,37 +750,37 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.7102296808703272</v>
+        <v>1.476540166645776</v>
       </c>
       <c r="C9">
-        <v>0.13968345485074</v>
+        <v>0.08761782151755426</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.2202080482539799</v>
+        <v>0.1445818873208076</v>
       </c>
       <c r="F9">
-        <v>2.099971011418575</v>
+        <v>1.216298396336654</v>
       </c>
       <c r="G9">
-        <v>0.002477515510248325</v>
+        <v>0.0008156511158427617</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>1.013372965933879</v>
+        <v>0.4161382432120568</v>
       </c>
       <c r="J9">
-        <v>0.06658092163084461</v>
+        <v>0.07690708680963354</v>
       </c>
       <c r="K9">
-        <v>0.4077955681454171</v>
+        <v>1.172892962102992</v>
       </c>
       <c r="L9">
-        <v>0.4903380556640258</v>
+        <v>0.520848657836126</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -789,7 +789,7 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>3.812238044646165</v>
+        <v>1.688007306992361</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,37 +797,37 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.790984810748995</v>
+        <v>1.754882757552252</v>
       </c>
       <c r="C10">
-        <v>0.1403028041037544</v>
+        <v>0.08978938430042405</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.2235032619565658</v>
+        <v>0.1628049123346642</v>
       </c>
       <c r="F10">
-        <v>2.104403673382052</v>
+        <v>1.317821339050425</v>
       </c>
       <c r="G10">
-        <v>0.002473946024541602</v>
+        <v>0.0008096942428925478</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0.9997180911870522</v>
+        <v>0.4055422635945369</v>
       </c>
       <c r="J10">
-        <v>0.06881529724272184</v>
+        <v>0.08330810751305506</v>
       </c>
       <c r="K10">
-        <v>0.4740166095862719</v>
+        <v>1.391005747442051</v>
       </c>
       <c r="L10">
-        <v>0.5115064422680717</v>
+        <v>0.6086415448791342</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -836,7 +836,7 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>3.768176677358554</v>
+        <v>1.686585938214989</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,37 +844,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.8278295191639415</v>
+        <v>1.882184617994511</v>
       </c>
       <c r="C11">
-        <v>0.1405910276804434</v>
+        <v>0.09079988596489841</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.2250840802408192</v>
+        <v>0.1712626065997256</v>
       </c>
       <c r="F11">
-        <v>2.10749692096401</v>
+        <v>1.366625802510882</v>
       </c>
       <c r="G11">
-        <v>0.002472399825259214</v>
+        <v>0.0008070485307039616</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0.9940069014785529</v>
+        <v>0.4018729779588135</v>
       </c>
       <c r="J11">
-        <v>0.06982792800462789</v>
+        <v>0.08622677490755848</v>
       </c>
       <c r="K11">
-        <v>0.5041184649205093</v>
+        <v>1.490634403499399</v>
       </c>
       <c r="L11">
-        <v>0.5213185448060926</v>
+        <v>0.6490736904569303</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>3.750168383433476</v>
+        <v>1.690928975656817</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,37 +891,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.8417966097582621</v>
+        <v>1.930507467161874</v>
       </c>
       <c r="C12">
-        <v>0.140701087560771</v>
+        <v>0.09118606005268504</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0.2256943978121555</v>
+        <v>0.1744914801425281</v>
       </c>
       <c r="F12">
-        <v>2.108822892053425</v>
+        <v>1.385512577850079</v>
       </c>
       <c r="G12">
-        <v>0.002471825418424964</v>
+        <v>0.0008060554521163995</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0.9919161716539229</v>
+        <v>0.4006589709420645</v>
       </c>
       <c r="J12">
-        <v>0.07021082077405794</v>
+        <v>0.08733321272665506</v>
       </c>
       <c r="K12">
-        <v>0.5155135406235161</v>
+        <v>1.528434272190452</v>
       </c>
       <c r="L12">
-        <v>0.5250601705916864</v>
+        <v>0.6644636414217757</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -930,7 +930,7 @@
         <v>0</v>
       </c>
       <c r="O12">
-        <v>3.743641811547263</v>
+        <v>1.693339167053153</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,37 +938,37 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.8387879021307469</v>
+        <v>1.920094794895334</v>
       </c>
       <c r="C13">
-        <v>0.1406773437111397</v>
+        <v>0.09110272959262034</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0.2255624359043509</v>
+        <v>0.1737948895217514</v>
       </c>
       <c r="F13">
-        <v>2.10853044693917</v>
+        <v>1.38142645742397</v>
       </c>
       <c r="G13">
-        <v>0.002471948634110604</v>
+        <v>0.0008062689452235376</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0.9923632465933032</v>
+        <v>0.4009124588727992</v>
       </c>
       <c r="J13">
-        <v>0.0701283836068356</v>
+        <v>0.08709486439826009</v>
       </c>
       <c r="K13">
-        <v>0.5130595879542454</v>
+        <v>1.520289928679432</v>
       </c>
       <c r="L13">
-        <v>0.5242531923149301</v>
+        <v>0.6611454849493157</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -977,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <v>3.745034402854941</v>
+        <v>1.692785239075221</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,37 +985,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.8289783083480131</v>
+        <v>1.886157725676725</v>
       </c>
       <c r="C14">
-        <v>0.1406000641071898</v>
+        <v>0.09083158461918828</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0.225134057419325</v>
+        <v>0.171527712533603</v>
       </c>
       <c r="F14">
-        <v>2.107602911735583</v>
+        <v>1.368171329359228</v>
       </c>
       <c r="G14">
-        <v>0.002472352346141194</v>
+        <v>0.0008069666558462034</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>0.9938334533860278</v>
+        <v>0.4017695246194037</v>
       </c>
       <c r="J14">
-        <v>0.06985944034527591</v>
+        <v>0.08631777680120223</v>
       </c>
       <c r="K14">
-        <v>0.5050560252221601</v>
+        <v>1.493742681410311</v>
       </c>
       <c r="L14">
-        <v>0.521625851039758</v>
+        <v>0.6503381962159551</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -1024,7 +1024,7 @@
         <v>0</v>
       </c>
       <c r="O14">
-        <v>3.7496255702452</v>
+        <v>1.691111633112655</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,37 +1032,37 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.8229715511540121</v>
+        <v>1.86538601427992</v>
       </c>
       <c r="C15">
-        <v>0.1405528469268447</v>
+        <v>0.09066596699672402</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0.2248731843722709</v>
+        <v>0.1701424647210317</v>
       </c>
       <c r="F15">
-        <v>2.107054899929125</v>
+        <v>1.360105883056249</v>
       </c>
       <c r="G15">
-        <v>0.002472601076293958</v>
+        <v>0.0008073951560724766</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0.9947433707626949</v>
+        <v>0.4023176612602839</v>
       </c>
       <c r="J15">
-        <v>0.06969463012945454</v>
+        <v>0.08584195156926455</v>
       </c>
       <c r="K15">
-        <v>0.5001530930851743</v>
+        <v>1.477491621157924</v>
       </c>
       <c r="L15">
-        <v>0.5200199066854765</v>
+        <v>0.64372897856245</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -1071,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>3.752475923690554</v>
+        <v>1.690187684905368</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,37 +1079,37 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.7885790393012542</v>
+        <v>1.746578544829134</v>
       </c>
       <c r="C16">
-        <v>0.1402840970292303</v>
+        <v>0.08972382321962868</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0.2234015921546089</v>
+        <v>0.1622557278259507</v>
       </c>
       <c r="F16">
-        <v>2.104223171870174</v>
+        <v>1.31468700443645</v>
       </c>
       <c r="G16">
-        <v>0.00247404862901731</v>
+        <v>0.0008098684007891098</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>1.00010140226793</v>
+        <v>0.4058060564952548</v>
       </c>
       <c r="J16">
-        <v>0.06874904110355828</v>
+        <v>0.08311752147592699</v>
       </c>
       <c r="K16">
-        <v>0.4720488783089536</v>
+        <v>1.384504162999889</v>
       </c>
       <c r="L16">
-        <v>0.5108688494569691</v>
+        <v>0.6060098385818122</v>
       </c>
       <c r="M16">
         <v>0</v>
@@ -1118,7 +1118,7 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>3.769394527217543</v>
+        <v>1.686406550208261</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,37 +1126,37 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.7675076097976614</v>
+        <v>1.673881375821196</v>
       </c>
       <c r="C17">
-        <v>0.140120875716029</v>
+        <v>0.08915182787409037</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0.2225197228388218</v>
+        <v>0.1574618531332526</v>
       </c>
       <c r="F17">
-        <v>2.10276163976657</v>
+        <v>1.287515142175664</v>
       </c>
       <c r="G17">
-        <v>0.002474956489150869</v>
+        <v>0.0008114017810578557</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>1.003516569953522</v>
+        <v>0.4082477343119031</v>
       </c>
       <c r="J17">
-        <v>0.0681679641963342</v>
+        <v>0.08144807008164889</v>
       </c>
       <c r="K17">
-        <v>0.4548016675778399</v>
+        <v>1.327573503963521</v>
       </c>
       <c r="L17">
-        <v>0.5053015381734269</v>
+        <v>0.5830026247206774</v>
       </c>
       <c r="M17">
         <v>0</v>
@@ -1165,7 +1165,7 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>3.780294928088011</v>
+        <v>1.685398101578784</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,37 +1173,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.7553981715030318</v>
+        <v>1.632130948571131</v>
       </c>
       <c r="C18">
-        <v>0.1400276058488288</v>
+        <v>0.08882494574987732</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0.2220201992564093</v>
+        <v>0.1547202255810589</v>
       </c>
       <c r="F18">
-        <v>2.102022372492627</v>
+        <v>1.272131497432497</v>
       </c>
       <c r="G18">
-        <v>0.00247548597141496</v>
+        <v>0.0008122898010287336</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>1.00552799142671</v>
+        <v>0.4097598136833085</v>
       </c>
       <c r="J18">
-        <v>0.06783338798888749</v>
+        <v>0.0804884727196864</v>
       </c>
       <c r="K18">
-        <v>0.4448794538692482</v>
+        <v>1.294866005071981</v>
       </c>
       <c r="L18">
-        <v>0.5021165602746862</v>
+        <v>0.5698155367627749</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -1212,7 +1212,7 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>3.786756130874949</v>
+        <v>1.68528465059552</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,37 +1220,37 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.7512999169979935</v>
+        <v>1.618005267124261</v>
       </c>
       <c r="C19">
-        <v>0.1399961316476563</v>
+        <v>0.08871462464846047</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0.2218523944525153</v>
+        <v>0.1537945928703088</v>
       </c>
       <c r="F19">
-        <v>2.1017894858646</v>
+        <v>1.26696407723955</v>
       </c>
       <c r="G19">
-        <v>0.002475666501217891</v>
+        <v>0.0008125915225637672</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>1.006217114755543</v>
+        <v>0.4102899804709814</v>
       </c>
       <c r="J19">
-        <v>0.06772004574833801</v>
+        <v>0.08016367067128272</v>
       </c>
       <c r="K19">
-        <v>0.4415196254196303</v>
+        <v>1.283797841282905</v>
       </c>
       <c r="L19">
-        <v>0.501041141814909</v>
+        <v>0.5653582889902964</v>
       </c>
       <c r="M19">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="O19">
-        <v>3.788976684703641</v>
+        <v>1.685324961661081</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,37 +1267,37 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.7697496405305344</v>
+        <v>1.681613458837916</v>
       </c>
       <c r="C20">
-        <v>0.1401381878107131</v>
+        <v>0.08921249709388945</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>0.2226128024575154</v>
+        <v>0.1579705322920901</v>
       </c>
       <c r="F20">
-        <v>2.102906732791368</v>
+        <v>1.290382086313372</v>
       </c>
       <c r="G20">
-        <v>0.002474859090126986</v>
+        <v>0.0008112379259159225</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>1.003148144051423</v>
+        <v>0.4079765977756189</v>
       </c>
       <c r="J20">
-        <v>0.06822985784649305</v>
+        <v>0.08162571958245124</v>
       </c>
       <c r="K20">
-        <v>0.4566378817695806</v>
+        <v>1.333629889658397</v>
       </c>
       <c r="L20">
-        <v>0.5058924104175588</v>
+        <v>0.5854469591365898</v>
       </c>
       <c r="M20">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="O20">
-        <v>3.779114733329436</v>
+        <v>1.685456825291709</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,37 +1314,37 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.8318592289094227</v>
+        <v>1.896122554296653</v>
       </c>
       <c r="C21">
-        <v>0.1406227382684406</v>
+        <v>0.09091112874732232</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>0.2252595656809078</v>
+        <v>0.1721929118581258</v>
       </c>
       <c r="F21">
-        <v>2.107871156566446</v>
+        <v>1.372053436380696</v>
       </c>
       <c r="G21">
-        <v>0.002472233465165671</v>
+        <v>0.0008067614861561713</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>0.9933996646234071</v>
+        <v>0.4015129385384171</v>
       </c>
       <c r="J21">
-        <v>0.06993845110878283</v>
+        <v>0.08654599180412959</v>
       </c>
       <c r="K21">
-        <v>0.5074069748373802</v>
+        <v>1.501538162838074</v>
       </c>
       <c r="L21">
-        <v>0.5223968613209848</v>
+        <v>0.6535103433335365</v>
       </c>
       <c r="M21">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="O21">
-        <v>3.748269086506866</v>
+        <v>1.691582034669324</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,37 +1361,37 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.8725373057669117</v>
+        <v>2.037004561726008</v>
       </c>
       <c r="C22">
-        <v>0.1409447512040458</v>
+        <v>0.09204193476130484</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>0.2270575200791498</v>
+        <v>0.1816413666077636</v>
       </c>
       <c r="F22">
-        <v>2.112016867251299</v>
+        <v>1.427809146793251</v>
       </c>
       <c r="G22">
-        <v>0.002470582173721869</v>
+        <v>0.0008038869244154244</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>0.9874479904741307</v>
+        <v>0.3983164690693606</v>
       </c>
       <c r="J22">
-        <v>0.07105179140246065</v>
+        <v>0.08976879295159534</v>
       </c>
       <c r="K22">
-        <v>0.5405648231540567</v>
+        <v>1.611706696812774</v>
       </c>
       <c r="L22">
-        <v>0.5333348809500507</v>
+        <v>0.6984593232429859</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -1400,7 +1400,7 @@
         <v>0</v>
       </c>
       <c r="O22">
-        <v>3.72981624737605</v>
+        <v>1.700072314796387</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,37 +1408,37 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.8508190720511948</v>
+        <v>1.961743847993148</v>
       </c>
       <c r="C23">
-        <v>0.1407724041830889</v>
+        <v>0.09143641921928491</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>0.2260917055004725</v>
+        <v>0.1765838333989009</v>
       </c>
       <c r="F23">
-        <v>2.109721838506559</v>
+        <v>1.397823639871064</v>
       </c>
       <c r="G23">
-        <v>0.002471457594990314</v>
+        <v>0.0008054166072085618</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>0.9905861230664108</v>
+        <v>0.3999249576463022</v>
       </c>
       <c r="J23">
-        <v>0.07045789229262311</v>
+        <v>0.08804799466969371</v>
       </c>
       <c r="K23">
-        <v>0.5228701352320968</v>
+        <v>1.552863362920704</v>
       </c>
       <c r="L23">
-        <v>0.5274832820262247</v>
+        <v>0.6744238017231083</v>
       </c>
       <c r="M23">
         <v>0</v>
@@ -1447,7 +1447,7 @@
         <v>0</v>
       </c>
       <c r="O23">
-        <v>3.739508695564439</v>
+        <v>1.695113563931073</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,37 +1455,37 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.7687360033991126</v>
+        <v>1.678117647973409</v>
       </c>
       <c r="C24">
-        <v>0.1401303592429244</v>
+        <v>0.08918506243671231</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>0.2225706978738522</v>
+        <v>0.1577405136309586</v>
       </c>
       <c r="F24">
-        <v>2.102840821651782</v>
+        <v>1.28908520225491</v>
       </c>
       <c r="G24">
-        <v>0.002474903100720837</v>
+        <v>0.0008113119847353712</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>1.003314559896392</v>
+        <v>0.4080988419381839</v>
       </c>
       <c r="J24">
-        <v>0.06820187730570026</v>
+        <v>0.081545403660229</v>
       </c>
       <c r="K24">
-        <v>0.4558077497289617</v>
+        <v>1.330891728039148</v>
       </c>
       <c r="L24">
-        <v>0.5056252280193405</v>
+        <v>0.5843417513521842</v>
       </c>
       <c r="M24">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="O24">
-        <v>3.779647693784511</v>
+        <v>1.685428827416587</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,37 +1502,37 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.6805926682066854</v>
+        <v>1.374527940139529</v>
       </c>
       <c r="C25">
-        <v>0.1394612210977542</v>
+        <v>0.08683658699941077</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>0.2190675286061712</v>
+        <v>0.1380074909612823</v>
       </c>
       <c r="F25">
-        <v>2.09929477852792</v>
+        <v>1.181055104667479</v>
       </c>
       <c r="G25">
-        <v>0.002478899137153836</v>
+        <v>0.0008179043077818915</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>1.01884524556425</v>
+        <v>0.4209980380690368</v>
       </c>
       <c r="J25">
-        <v>0.0657548658906677</v>
+        <v>0.07455446981027691</v>
       </c>
       <c r="K25">
-        <v>0.3833930641216341</v>
+        <v>1.092844770390769</v>
       </c>
       <c r="L25">
-        <v>0.4827059753845901</v>
+        <v>0.4889060308480566</v>
       </c>
       <c r="M25">
         <v>0</v>
@@ -1541,7 +1541,7 @@
         <v>0</v>
       </c>
       <c r="O25">
-        <v>3.830268289936541</v>
+        <v>1.692652878851874</v>
       </c>
     </row>
   </sheetData>
